--- a/mbs-perturbation/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.67003367003367</v>
+        <v>0.5921450151057401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9255813953488372</v>
+        <v>0.9116279069767442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77734375</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7908815575987019</v>
+        <v>0.7559437533802056</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7527675276752768</v>
+        <v>0.9901477832512315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9488372093023256</v>
+        <v>0.9348837209302325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8395061728395062</v>
+        <v>0.9617224880382774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9702974580854515</v>
+        <v>0.9699513250405625</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9753694581280788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8697674418604651</v>
+        <v>0.9209302325581395</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9303482587064676</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9955002704164414</v>
+        <v>0.9765711195240669</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.8744186046511628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9268292682926831</v>
+        <v>0.9330024813895782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9874959437533802</v>
+        <v>0.9529691725256897</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9255813953488372</v>
+        <v>0.9348837209302325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.961352657004831</v>
+        <v>0.9663461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9980313683071931</v>
+        <v>0.962422931314224</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8794320344135842</v>
+        <v>0.9115324512970101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9106976744186047</v>
+        <v>0.9153488372093023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8870760213686977</v>
+        <v>0.9052776524550719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9484413196322337</v>
+        <v>0.9235716603569497</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5921450151057401</v>
+        <v>0.6390728476821192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9116279069767442</v>
+        <v>0.9846938775510204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717948717948718</v>
+        <v>0.7751004016064258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7559437533802056</v>
+        <v>0.7835295656724228</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9901477832512315</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9348837209302325</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9617224880382774</v>
+        <v>0.9847715736040609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9699513250405625</v>
+        <v>0.9989795918367347</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9753694581280788</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9209302325581395</v>
+        <v>0.9641025641025641</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9765711195240669</v>
+        <v>0.9964939822082679</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8744186046511628</v>
+        <v>0.9897435897435898</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9330024813895782</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9529691725256897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9348837209302325</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9663461538461539</v>
+        <v>0.9844559585492229</v>
       </c>
       <c r="E6" t="n">
-        <v>0.962422931314224</v>
+        <v>0.9987113740959894</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9115324512970101</v>
+        <v>0.9175456979269125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9153488372093023</v>
+        <v>0.980538984824699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9052776524550719</v>
+        <v>0.9416490919065812</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9235716603569497</v>
+        <v>0.9555429027626829</v>
       </c>
     </row>
   </sheetData>
